--- a/artfynd/A 58505-2022.xlsx
+++ b/artfynd/A 58505-2022.xlsx
@@ -3678,10 +3678,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>565361.8150969329</v>
+        <v>565362</v>
       </c>
       <c r="R27" t="n">
-        <v>6702020.109688069</v>
+        <v>6702020</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
